--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE72E043-556D-434E-BD19-5C3DC2E411C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9661D4E-7BCC-4CAD-9F58-E0FD05C6A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -551,6 +551,7 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,11 +591,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -942,101 +939,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="37" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
     </row>
     <row r="5" spans="1:26" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1091,9 +1088,9 @@
       <c r="V5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
@@ -1161,37 +1158,36 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="12">
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9661D4E-7BCC-4CAD-9F58-E0FD05C6A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1F3D3E-0C6E-4E33-9E66-0140BDE25255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Расчеты показателя посещаемости  нац цель</t>
   </si>
@@ -195,9 +195,6 @@
       </rPr>
       <t xml:space="preserve"> мероприятия вне стационара</t>
     </r>
-  </si>
-  <si>
-    <t>ИТОГО:</t>
   </si>
 </sst>
 </file>
@@ -289,7 +286,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,12 +299,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -482,7 +473,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -551,7 +542,6 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,7 +581,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -908,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,101 +928,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="38" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1088,9 +1077,9 @@
       <c r="V5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="40"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
@@ -1157,35 +1146,6 @@
       <c r="F8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:Z1"/>

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1F3D3E-0C6E-4E33-9E66-0140BDE25255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{043B2F98-8EC7-4B4F-95D7-A8F8AE058A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Y$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Расчеты показателя посещаемости  нац цель</t>
   </si>
@@ -39,162 +34,52 @@
     <t>Наименование  учреждения</t>
   </si>
   <si>
+    <t>Данные статистики по посещаемости по итогам 2024 года</t>
+  </si>
+  <si>
+    <t>Значение целевого показателя за 2025 год план</t>
+  </si>
+  <si>
+    <t>Значение показателя в 1 квартале 2025 года</t>
+  </si>
+  <si>
+    <t>итого за 1-й квартал 2025</t>
+  </si>
+  <si>
+    <t>итого за 12 месяцев</t>
+  </si>
+  <si>
+    <t>% достижения показателя за 12 месяцев</t>
+  </si>
+  <si>
+    <t>Январь посещаемость (всего)</t>
+  </si>
+  <si>
+    <t>Февраль посещаемость (всего)</t>
+  </si>
+  <si>
+    <t>Март посещаемость (всего)</t>
+  </si>
+  <si>
+    <t>стационар (посещаемость за книгой + посещаемость мероприятий)</t>
+  </si>
+  <si>
+    <t>в т.ч. мероприятия стационар</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> удалённые пользователи (посещаемость   (звонки, эл. почта )</t>
+  </si>
+  <si>
+    <t>вне стационара  (книгоношество + посещаемость мероприятий)</t>
+  </si>
+  <si>
+    <t>в т.ч. мероприятия вне стационара</t>
+  </si>
+  <si>
     <t>итого</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>итого за 12 месяцев</t>
-  </si>
-  <si>
-    <t>% достижения показателя за 12 месяцев</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>стационар</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>посещаемость за книгой + посещаемость мероприятий)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>вне стационара</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  (книгоношество + посещаемость мероприятий)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> удалённые</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пользователи</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (посещаемость   (звонки, эл. почта )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в т.ч.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> мероприятия стационар</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в т.ч.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> мероприятия вне стационара</t>
-    </r>
+    <t>ИТОГО:</t>
   </si>
 </sst>
 </file>
@@ -204,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]General"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,21 +157,31 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +194,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -396,34 +297,70 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -437,18 +374,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -457,13 +385,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,22 +425,10 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -496,96 +438,155 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,8 +912,8 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="10" max="10" width="11.42578125"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="15" width="13.28515625" customWidth="1"/>
@@ -928,238 +929,737 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="37" t="s">
+      <c r="C3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="57" t="s">
         <v>6</v>
       </c>
+      <c r="X3" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-    </row>
-    <row r="5" spans="1:26" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="13" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+    </row>
+    <row r="6" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>5</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>6</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>7</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>9</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>11</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-    </row>
-    <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="29"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="13"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>12</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="13"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>13</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="13"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>14</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="13"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>15</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="13"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>16</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="13"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29">
+        <v>17</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="41"/>
+    </row>
+    <row r="24" spans="1:25" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E3:V3"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="K4:P4"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:V3"/>
     <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Y3:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="53" firstPageNumber="0" orientation="landscape" r:id="rId1"/>

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{043B2F98-8EC7-4B4F-95D7-A8F8AE058A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2876E7E-9ADB-4D69-9117-4496ED6302E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,9 +543,6 @@
     <xf numFmtId="1" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,6 +578,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,115 +929,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="57" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="X3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="56" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="49" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="49" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="49" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1092,9 +1092,9 @@
       <c r="V5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
     </row>
     <row r="6" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -1617,10 +1617,10 @@
       <c r="Y23" s="41"/>
     </row>
     <row r="24" spans="1:25" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="46"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
@@ -1646,8 +1646,7 @@
       <c r="Y24" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="12">
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="D3:D5"/>

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2876E7E-9ADB-4D69-9117-4496ED6302E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2FAC78-41E8-40FA-BC30-F9C353532185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,6 +543,9 @@
     <xf numFmtId="1" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,9 +581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -901,7 +901,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,115 +929,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="56" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="56" t="s">
+      <c r="X3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="56" t="s">
+      <c r="Y3" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="48" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="48" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="48" t="s">
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1092,9 +1092,9 @@
       <c r="V5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
     </row>
     <row r="6" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -1617,10 +1617,10 @@
       <c r="Y23" s="41"/>
     </row>
     <row r="24" spans="1:25" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="45" t="s">
         <v>18</v>
       </c>
+      <c r="B24" s="46"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
@@ -1646,7 +1646,8 @@
       <c r="Y24" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="D3:D5"/>

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2FAC78-41E8-40FA-BC30-F9C353532185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F6D70-6FEC-4260-AA40-B067A1BB3A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -437,36 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -486,53 +456,11 @@
     <xf numFmtId="3" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +509,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -901,7 +904,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,115 +932,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="57" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="X3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="49" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="49" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="49" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
     </row>
     <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1092,558 +1095,558 @@
       <c r="V5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="25"/>
-    </row>
-    <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="13"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="B7" s="16"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51"/>
+    </row>
+    <row r="8" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="13"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="B8" s="16"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="51"/>
+    </row>
+    <row r="9" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
         <v>3</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="13"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="B9" s="16"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="51"/>
+    </row>
+    <row r="10" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>4</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="B10" s="16"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="51"/>
+    </row>
+    <row r="11" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>5</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="B11" s="16"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="51"/>
+    </row>
+    <row r="12" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>6</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="13"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="B12" s="16"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="51"/>
+    </row>
+    <row r="13" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
         <v>7</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="13"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="B13" s="16"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="51"/>
+    </row>
+    <row r="14" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="B14" s="16"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="51"/>
+    </row>
+    <row r="15" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
         <v>9</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="B15" s="16"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="51"/>
+    </row>
+    <row r="16" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
         <v>10</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="13"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="B16" s="16"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="51"/>
+    </row>
+    <row r="17" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
         <v>11</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="13"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="B17" s="16"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="51"/>
+    </row>
+    <row r="18" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
         <v>12</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="13"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="B18" s="16"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="51"/>
+    </row>
+    <row r="19" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
         <v>13</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="13"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="B19" s="16"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="51"/>
+    </row>
+    <row r="20" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
         <v>14</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="13"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="B20" s="16"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="51"/>
+    </row>
+    <row r="21" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
         <v>15</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="13"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="B21" s="16"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="51"/>
+    </row>
+    <row r="22" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
         <v>16</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="13"/>
-    </row>
-    <row r="23" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="B22" s="16"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="51"/>
+    </row>
+    <row r="23" spans="1:25" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53">
         <v>17</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="41"/>
-    </row>
-    <row r="24" spans="1:25" s="14" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="45" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="64"/>
+    </row>
+    <row r="24" spans="1:25" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="44"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F6D70-6FEC-4260-AA40-B067A1BB3A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB95845-3A38-45FA-B98D-2AD58B3CB4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -321,26 +321,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -427,7 +407,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -456,25 +436,19 @@
     <xf numFmtId="3" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -484,17 +458,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,10 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +553,15 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -903,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,115 +910,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="33" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="33" t="s">
+      <c r="X3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="25" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="25" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
     </row>
     <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1095,9 +1073,9 @@
       <c r="V5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
     </row>
     <row r="6" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1126,527 +1104,527 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:26" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+    <row r="7" spans="1:26" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
         <v>1</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="51"/>
-    </row>
-    <row r="8" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="B7" s="61"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="46"/>
+    </row>
+    <row r="8" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="51"/>
-    </row>
-    <row r="9" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="B8" s="61"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
+    </row>
+    <row r="9" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="51"/>
-    </row>
-    <row r="10" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="B9" s="61"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="46"/>
+    </row>
+    <row r="10" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="51"/>
-    </row>
-    <row r="11" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="B10" s="61"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="46"/>
+    </row>
+    <row r="11" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="51"/>
-    </row>
-    <row r="12" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="B11" s="61"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="46"/>
+    </row>
+    <row r="12" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="51"/>
-    </row>
-    <row r="13" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="B12" s="61"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+    </row>
+    <row r="13" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="51"/>
-    </row>
-    <row r="14" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="B13" s="61"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="46"/>
+    </row>
+    <row r="14" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
         <v>8</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="51"/>
-    </row>
-    <row r="15" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="B14" s="61"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="46"/>
+    </row>
+    <row r="15" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>9</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="51"/>
-    </row>
-    <row r="16" spans="1:26" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="B15" s="61"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="46"/>
+    </row>
+    <row r="16" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
         <v>10</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="51"/>
-    </row>
-    <row r="17" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="B16" s="61"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="46"/>
+    </row>
+    <row r="17" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>11</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="51"/>
-    </row>
-    <row r="18" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="B17" s="61"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="46"/>
+    </row>
+    <row r="18" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>12</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="51"/>
-    </row>
-    <row r="19" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+      <c r="B18" s="61"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="46"/>
+    </row>
+    <row r="19" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>13</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="51"/>
-    </row>
-    <row r="20" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="B19" s="61"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="46"/>
+    </row>
+    <row r="20" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>14</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="51"/>
-    </row>
-    <row r="21" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="B20" s="61"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="46"/>
+    </row>
+    <row r="21" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>15</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="51"/>
-    </row>
-    <row r="22" spans="1:25" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="B21" s="61"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="46"/>
+    </row>
+    <row r="22" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
         <v>16</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="51"/>
-    </row>
-    <row r="23" spans="1:25" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53">
+      <c r="B22" s="61"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="46"/>
+    </row>
+    <row r="23" spans="1:25" s="47" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48">
         <v>17</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="64"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="59"/>
     </row>
     <row r="24" spans="1:25" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB95845-3A38-45FA-B98D-2AD58B3CB4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4EFC7A-8E68-4DE6-9645-C5F1DEB0B6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,87 +479,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -983,7 +1008,7 @@
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
-      <c r="B4" s="60"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="32"/>
       <c r="D4" s="27"/>
       <c r="E4" s="23" t="s">
@@ -1016,7 +1041,7 @@
     </row>
     <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="60"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="33"/>
       <c r="D5" s="27"/>
       <c r="E5" s="3" t="s">
@@ -1104,498 +1129,498 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:26" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+    <row r="7" spans="1:26" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="46"/>
-    </row>
-    <row r="8" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="B7" s="36"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49"/>
+    </row>
+    <row r="8" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>2</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-    </row>
-    <row r="9" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="49"/>
+    </row>
+    <row r="9" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>3</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="46"/>
-    </row>
-    <row r="10" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+    </row>
+    <row r="10" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>4</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="46"/>
-    </row>
-    <row r="11" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="B10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
+    </row>
+    <row r="11" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>5</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="46"/>
-    </row>
-    <row r="12" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+    </row>
+    <row r="12" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>6</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
-    </row>
-    <row r="13" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="B12" s="36"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="49"/>
+    </row>
+    <row r="13" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>7</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="46"/>
-    </row>
-    <row r="14" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+    </row>
+    <row r="14" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>8</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="46"/>
-    </row>
-    <row r="15" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
+    </row>
+    <row r="15" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <v>9</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="46"/>
-    </row>
-    <row r="16" spans="1:26" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="49"/>
+    </row>
+    <row r="16" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>10</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="46"/>
-    </row>
-    <row r="17" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="49"/>
+    </row>
+    <row r="17" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
         <v>11</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="46"/>
-    </row>
-    <row r="18" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+    </row>
+    <row r="18" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <v>12</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="46"/>
-    </row>
-    <row r="19" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="B18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+    </row>
+    <row r="19" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <v>13</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="46"/>
-    </row>
-    <row r="20" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="49"/>
+    </row>
+    <row r="20" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>14</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="46"/>
-    </row>
-    <row r="21" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="49"/>
+    </row>
+    <row r="21" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>15</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="46"/>
-    </row>
-    <row r="22" spans="1:25" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="49"/>
+    </row>
+    <row r="22" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>16</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="46"/>
-    </row>
-    <row r="23" spans="1:25" s="47" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48">
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="49"/>
+    </row>
+    <row r="23" spans="1:25" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51">
         <v>17</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="59"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="62"/>
     </row>
     <row r="24" spans="1:25" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4EFC7A-8E68-4DE6-9645-C5F1DEB0B6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C5453-6657-4E82-A351-1633D7724160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,14 +480,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -586,6 +578,14 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -907,13 +907,13 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
@@ -1129,498 +1129,498 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:26" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+    <row r="7" spans="1:26" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
         <v>1</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="49"/>
-    </row>
-    <row r="8" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="B7" s="61"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="47"/>
+    </row>
+    <row r="8" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="49"/>
-    </row>
-    <row r="9" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="B8" s="61"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="47"/>
+    </row>
+    <row r="9" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>3</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="49"/>
-    </row>
-    <row r="10" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="B9" s="61"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="47"/>
+    </row>
+    <row r="10" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
         <v>4</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="49"/>
-    </row>
-    <row r="11" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="B10" s="61"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="47"/>
+    </row>
+    <row r="11" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="49"/>
-    </row>
-    <row r="12" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="B11" s="61"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="47"/>
+    </row>
+    <row r="12" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
         <v>6</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="49"/>
-    </row>
-    <row r="13" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="B12" s="61"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="47"/>
+    </row>
+    <row r="13" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
         <v>7</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-    </row>
-    <row r="14" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="B13" s="61"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="47"/>
+    </row>
+    <row r="14" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
         <v>8</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="49"/>
-    </row>
-    <row r="15" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="B14" s="61"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="47"/>
+    </row>
+    <row r="15" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
         <v>9</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="49"/>
-    </row>
-    <row r="16" spans="1:26" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="B15" s="61"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="47"/>
+    </row>
+    <row r="16" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
         <v>10</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="49"/>
-    </row>
-    <row r="17" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="B16" s="61"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="47"/>
+    </row>
+    <row r="17" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
         <v>11</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="49"/>
-    </row>
-    <row r="18" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="B17" s="61"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="47"/>
+    </row>
+    <row r="18" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
         <v>12</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="49"/>
-    </row>
-    <row r="19" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="B18" s="61"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="47"/>
+    </row>
+    <row r="19" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
         <v>13</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="49"/>
-    </row>
-    <row r="20" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="B19" s="61"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="47"/>
+    </row>
+    <row r="20" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
         <v>14</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="49"/>
-    </row>
-    <row r="21" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="B20" s="61"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="47"/>
+    </row>
+    <row r="21" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
         <v>15</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="49"/>
-    </row>
-    <row r="22" spans="1:25" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="B21" s="61"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
+    </row>
+    <row r="22" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
         <v>16</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="49"/>
-    </row>
-    <row r="23" spans="1:25" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
+      <c r="B22" s="61"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="47"/>
+    </row>
+    <row r="23" spans="1:25" s="48" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49">
         <v>17</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="60"/>
     </row>
     <row r="24" spans="1:25" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">

--- a/apps/reports/excell/report_quarter_template_all_branch.xlsx
+++ b/apps/reports/excell/report_quarter_template_all_branch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C5453-6657-4E82-A351-1633D7724160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA59B2-2258-4A6D-B10F-17298C1081C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Y$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Y$24</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -445,6 +445,114 @@
     <xf numFmtId="1" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,12 +573,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,115 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,115 +935,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="28" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="23" t="s">
+    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="23" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="23" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-    </row>
-    <row r="5" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="27"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+    </row>
+    <row r="5" spans="1:26" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1098,11 +1098,11 @@
       <c r="V5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-    </row>
-    <row r="6" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -1129,504 +1129,504 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:26" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+    <row r="7" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="47"/>
-    </row>
-    <row r="8" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="B7" s="44"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>2</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="47"/>
-    </row>
-    <row r="9" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="B8" s="44"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>3</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="47"/>
-    </row>
-    <row r="10" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="B9" s="44"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="47"/>
-    </row>
-    <row r="11" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="B10" s="44"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="47"/>
-    </row>
-    <row r="12" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="B11" s="44"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>6</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="47"/>
-    </row>
-    <row r="13" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="B12" s="44"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>7</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="47"/>
-    </row>
-    <row r="14" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="B13" s="44"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>8</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="47"/>
-    </row>
-    <row r="15" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="B14" s="44"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="30"/>
+    </row>
+    <row r="15" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>9</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="47"/>
-    </row>
-    <row r="16" spans="1:26" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="B15" s="44"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>10</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="47"/>
-    </row>
-    <row r="17" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="B16" s="44"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="30"/>
+    </row>
+    <row r="17" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>11</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
-    </row>
-    <row r="18" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="B17" s="44"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
+    </row>
+    <row r="18" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>12</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
-    </row>
-    <row r="19" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="B18" s="44"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="30"/>
+    </row>
+    <row r="19" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>13</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="47"/>
-    </row>
-    <row r="20" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="B19" s="44"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="30"/>
+    </row>
+    <row r="20" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>14</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
-    </row>
-    <row r="21" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="B20" s="44"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
+    </row>
+    <row r="21" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
         <v>15</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
-    </row>
-    <row r="22" spans="1:25" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="B21" s="44"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="30"/>
+    </row>
+    <row r="22" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
         <v>16</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="47"/>
-    </row>
-    <row r="23" spans="1:25" s="48" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49">
+      <c r="B22" s="44"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="30"/>
+    </row>
+    <row r="23" spans="1:25" s="31" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32">
         <v>17</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="60"/>
-    </row>
-    <row r="24" spans="1:25" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="43"/>
+    </row>
+    <row r="24" spans="1:25" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1668,6 +1668,6 @@
     <mergeCell ref="W3:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="53" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>